--- a/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
@@ -1119,6 +1119,9 @@
       <c r="C81" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1180,7 +1183,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020202015206107105510520510551555351010105520510661255581415105515555101010101020101051015257010151515201515151512101212141214150</v>
+        <v>0202020202015206107105510520510551555351010105520510661255581415105515555101010101020101051015257010151515201515151512101212141214151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,12 +1120,28 @@
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
       <c r="F81" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L83"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1183,7 +1199,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202020202015206107105510520510551555351010105520510661255581415105515555101010101020101051015257010151515201515151512101212141214151</v>
+        <v>020202020201520610710551052051055155535101010552051066125558141510551555510101010102010105101525701015151520151515151210121214121415151510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-15.xlsx
@@ -1201,6 +1201,9 @@
       <c r="G2" t="str">
         <v>020202020201520610710551052051055155535101010552051066125558141510551555510101010102010105101525701015151520151515151210121214121415151510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
